--- a/output/Transitions Rule/facility_data/transition_rule_facility_demographics_5mi.xlsx
+++ b/output/Transitions Rule/facility_data/transition_rule_facility_demographics_5mi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Linde-Whiting</t>
   </si>
   <si>
-    <t xml:space="preserve">EAST CHICAGO</t>
+    <t xml:space="preserve">East Chicago</t>
   </si>
   <si>
     <t xml:space="preserve">Diversified-CPC</t>
@@ -110,31 +110,28 @@
     <t xml:space="preserve">CFI-PortNeal</t>
   </si>
   <si>
-    <t xml:space="preserve">SERGEANT BLUFF</t>
+    <t xml:space="preserve">Sergeant Bluff</t>
   </si>
   <si>
     <t xml:space="preserve">APC-Geismar</t>
   </si>
   <si>
-    <t xml:space="preserve">GEISMAR</t>
+    <t xml:space="preserve">Geismar</t>
   </si>
   <si>
     <t xml:space="preserve">Honeywell-Geismar</t>
   </si>
   <si>
-    <t xml:space="preserve">Geismar</t>
+    <t xml:space="preserve">APC-PortAuthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Arthur</t>
   </si>
   <si>
     <t xml:space="preserve">AEROPRES-SIBLEY</t>
   </si>
   <si>
     <t xml:space="preserve">Sibley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APC-PortAuthur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Arthur</t>
   </si>
   <si>
     <t xml:space="preserve">HaltermanCarless</t>
@@ -552,52 +549,52 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
-        <v>176.041116208356</v>
+        <v>196.63113068651</v>
       </c>
       <c r="F2" t="n">
-        <v>28864</v>
+        <v>56549</v>
       </c>
       <c r="G2" t="n">
-        <v>163.961696117841</v>
+        <v>287.589253047405</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J2" t="n">
-        <v>17345</v>
+        <v>37934</v>
       </c>
       <c r="K2" t="n">
-        <v>8723</v>
+        <v>13220</v>
       </c>
       <c r="L2" t="n">
-        <v>576</v>
+        <v>293</v>
       </c>
       <c r="M2" t="n">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="N2" t="n">
-        <v>3191</v>
+        <v>7775</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97465</v>
+        <v>49.0047692307692</v>
       </c>
       <c r="P2" t="n">
-        <v>8.12247204313792</v>
+        <v>6.9644053965162</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.5995431687979</v>
+        <v>12.9274906797582</v>
       </c>
       <c r="R2" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="S2" t="n">
-        <v>0.495</v>
+        <v>0.492307692307692</v>
       </c>
     </row>
     <row r="3">
@@ -611,52 +608,52 @@
         <v>106401</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>443.219040437332</v>
+        <v>422.192389752563</v>
       </c>
       <c r="F3" t="n">
-        <v>13164</v>
+        <v>8797</v>
       </c>
       <c r="G3" t="n">
-        <v>29.7008900768587</v>
+        <v>20.8364722186388</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>9324</v>
+        <v>7211</v>
       </c>
       <c r="K3" t="n">
-        <v>3519</v>
+        <v>1335</v>
       </c>
       <c r="L3" t="n">
         <v>173</v>
       </c>
       <c r="M3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>749</v>
+        <v>298</v>
       </c>
       <c r="O3" t="n">
-        <v>49.6273636363636</v>
+        <v>55.6223333333333</v>
       </c>
       <c r="P3" t="n">
-        <v>11.4616501002203</v>
+        <v>4.00529428733787</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.3549575568619</v>
+        <v>11.1294509931195</v>
       </c>
       <c r="R3" t="n">
-        <v>52.7272727272727</v>
+        <v>50</v>
       </c>
       <c r="S3" t="n">
-        <v>0.590909090909091</v>
+        <v>0.566666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -725,52 +722,52 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E5" t="n">
-        <v>284.138688488288</v>
+        <v>279.208811816867</v>
       </c>
       <c r="F5" t="n">
-        <v>278074</v>
+        <v>273798</v>
       </c>
       <c r="G5" t="n">
-        <v>978.655886248529</v>
+        <v>980.620913137887</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03</v>
+        <v>0.024</v>
       </c>
       <c r="J5" t="n">
-        <v>144062</v>
+        <v>141614</v>
       </c>
       <c r="K5" t="n">
-        <v>28082</v>
+        <v>27639</v>
       </c>
       <c r="L5" t="n">
         <v>1867</v>
       </c>
       <c r="M5" t="n">
-        <v>43967</v>
+        <v>43305</v>
       </c>
       <c r="N5" t="n">
-        <v>138963</v>
+        <v>137440</v>
       </c>
       <c r="O5" t="n">
-        <v>50.3030727272727</v>
+        <v>49.7378944099379</v>
       </c>
       <c r="P5" t="n">
-        <v>8.8808575554403</v>
+        <v>9.0299994623911</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.9902749955606</v>
+        <v>12.0943532838632</v>
       </c>
       <c r="R5" t="n">
         <v>30</v>
       </c>
       <c r="S5" t="n">
-        <v>0.478571428571429</v>
+        <v>0.479878048780488</v>
       </c>
     </row>
     <row r="6">
@@ -784,16 +781,16 @@
         <v>183562</v>
       </c>
       <c r="D6" t="n">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="E6" t="n">
-        <v>64.0523457607514</v>
+        <v>80.1469498240182</v>
       </c>
       <c r="F6" t="n">
-        <v>132898</v>
+        <v>178959</v>
       </c>
       <c r="G6" t="n">
-        <v>2074.8342378654</v>
+        <v>2232.88597249112</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -802,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64781</v>
+        <v>82166</v>
       </c>
       <c r="K6" t="n">
-        <v>37009</v>
+        <v>57189</v>
       </c>
       <c r="L6" t="n">
-        <v>495</v>
+        <v>672</v>
       </c>
       <c r="M6" t="n">
-        <v>591</v>
+        <v>1248</v>
       </c>
       <c r="N6" t="n">
-        <v>69119</v>
+        <v>68444</v>
       </c>
       <c r="O6" t="n">
-        <v>43.3666972477064</v>
+        <v>45.8696233766234</v>
       </c>
       <c r="P6" t="n">
-        <v>10.8368800526291</v>
+        <v>10.6961310497243</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.6435091193489</v>
+        <v>11.7969216170977</v>
       </c>
       <c r="R6" t="n">
         <v>30</v>
       </c>
       <c r="S6" t="n">
-        <v>0.377391304347826</v>
+        <v>0.364242424242424</v>
       </c>
     </row>
     <row r="7">
@@ -903,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>505.06378920804</v>
+        <v>388.310293949375</v>
       </c>
       <c r="F8" t="n">
-        <v>14674</v>
+        <v>14583</v>
       </c>
       <c r="G8" t="n">
-        <v>29.0537558097551</v>
+        <v>37.5550177969303</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -918,28 +915,28 @@
         <v>0.9</v>
       </c>
       <c r="J8" t="n">
-        <v>11717</v>
+        <v>11581</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L8" t="n">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="M8" t="n">
         <v>203</v>
       </c>
       <c r="N8" t="n">
-        <v>880</v>
+        <v>1008</v>
       </c>
       <c r="O8" t="n">
-        <v>72.5255</v>
+        <v>74.213</v>
       </c>
       <c r="P8" t="n">
-        <v>4.23702410679741</v>
+        <v>4.57628419421131</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.77874205342831</v>
+        <v>7.46600688747593</v>
       </c>
       <c r="R8" t="n">
         <v>20</v>
@@ -1012,7 +1009,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
         <v>528957</v>
@@ -1068,126 +1065,126 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11"/>
+      <c r="C11" t="n">
+        <v>2423361</v>
+      </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>246.941060057918</v>
+        <v>956.159882202067</v>
       </c>
       <c r="F11" t="n">
-        <v>8763</v>
+        <v>52463</v>
       </c>
       <c r="G11" t="n">
-        <v>35.4862006259498</v>
+        <v>54.8684388213152</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="J11" t="n">
-        <v>6917</v>
+        <v>26995</v>
       </c>
       <c r="K11" t="n">
-        <v>1608</v>
+        <v>19176</v>
       </c>
       <c r="L11" t="n">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="M11" t="n">
-        <v>19</v>
+        <v>3777</v>
       </c>
       <c r="N11" t="n">
-        <v>304</v>
+        <v>18545</v>
       </c>
       <c r="O11" t="n">
-        <v>39.2275714285714</v>
+        <v>39.1885434782609</v>
       </c>
       <c r="P11" t="n">
-        <v>10.4741288799415</v>
+        <v>12.1854389916085</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.4666225358</v>
+        <v>12.5620748615726</v>
       </c>
       <c r="R11" t="n">
-        <v>40</v>
+        <v>46.8627450980392</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.398039215686275</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2423361</v>
-      </c>
+      <c r="C12"/>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>953.231996243773</v>
+        <v>234.617951559258</v>
       </c>
       <c r="F12" t="n">
-        <v>41938</v>
+        <v>21636</v>
       </c>
       <c r="G12" t="n">
-        <v>43.9955857181225</v>
+        <v>92.218007429561</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.16</v>
+        <v>0.52</v>
       </c>
       <c r="J12" t="n">
-        <v>21168</v>
+        <v>12191</v>
       </c>
       <c r="K12" t="n">
-        <v>16106</v>
+        <v>8911</v>
       </c>
       <c r="L12" t="n">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="M12" t="n">
-        <v>2907</v>
+        <v>104</v>
       </c>
       <c r="N12" t="n">
-        <v>14220</v>
+        <v>243</v>
       </c>
       <c r="O12" t="n">
-        <v>39.33645</v>
+        <v>30.7228095238095</v>
       </c>
       <c r="P12" t="n">
-        <v>12.3020161017389</v>
+        <v>8.50433306877584</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.1893931650894</v>
+        <v>23.8404653935191</v>
       </c>
       <c r="R12" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S12" t="n">
-        <v>0.397777777777778</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="n">
@@ -1241,82 +1238,82 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
       <c r="C14" t="n">
         <v>26401</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>335.765302151272</v>
+        <v>334.639503004682</v>
       </c>
       <c r="F14" t="n">
-        <v>37022</v>
+        <v>34683</v>
       </c>
       <c r="G14" t="n">
-        <v>110.26154210336</v>
+        <v>103.642874462178</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="J14" t="n">
-        <v>34050</v>
+        <v>31808</v>
       </c>
       <c r="K14" t="n">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="L14" t="n">
         <v>183</v>
       </c>
       <c r="M14" t="n">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="N14" t="n">
-        <v>16692</v>
+        <v>15487</v>
       </c>
       <c r="O14" t="n">
-        <v>68.0507</v>
+        <v>69.3915789473684</v>
       </c>
       <c r="P14" t="n">
-        <v>4.48092343248817</v>
+        <v>4.32173615075584</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.44499966811836</v>
+        <v>2.65422327250218</v>
       </c>
       <c r="R14" t="n">
         <v>20</v>
       </c>
       <c r="S14" t="n">
-        <v>0.209090909090909</v>
+        <v>0.20952380952381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>194.373770042744</v>
+        <v>195.038768642775</v>
       </c>
       <c r="F15" t="n">
-        <v>11125</v>
+        <v>12136</v>
       </c>
       <c r="G15" t="n">
-        <v>57.2350888576866</v>
+        <v>62.2235265555218</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1325,28 +1322,28 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>10829</v>
+        <v>11672</v>
       </c>
       <c r="K15" t="n">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="L15" t="n">
         <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="N15" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O15" t="n">
-        <v>48.42025</v>
+        <v>48.6558888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>7.05107135565973</v>
+        <v>6.55367935362492</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.2765724985653</v>
+        <v>11.4346719252667</v>
       </c>
       <c r="R15" t="n">
         <v>30</v>
